--- a/forms/psa_biomass/psa_biomass.xlsx
+++ b/forms/psa_biomass/psa_biomass.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="474">
   <si>
     <t>type</t>
   </si>
@@ -1435,17 +1435,23 @@
     <t xml:space="preserve">If you forget how to measure 1 meter in this field, or you want to navigate anywhere in this form, use the arrow and dot icon on the top right corner, then click the up arrow, to navigate back to the "Measuring 1 meter" group. </t>
   </si>
   <si>
-    <t>v5</t>
-  </si>
-  <si>
     <t>drillline.jpg</t>
+  </si>
+  <si>
+    <t>biomass_harvest_date</t>
+  </si>
+  <si>
+    <t>Record today's date (date of biomass harvest)</t>
+  </si>
+  <si>
+    <t>v6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,6 +1486,13 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1508,7 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1521,6 +1534,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1826,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1952,8 +1966,8 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>470</v>
+      <c r="E8" s="10" t="s">
+        <v>473</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -2179,40 +2193,35 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
         <v>200</v>
@@ -2220,13 +2229,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>454</v>
+        <v>172</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2242,7 +2251,7 @@
         <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>459</v>
@@ -2261,7 +2270,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>459</v>
@@ -2280,7 +2289,7 @@
         <v>63</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>459</v>
@@ -2296,10 +2305,14 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>459</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2310,65 +2323,60 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>62</v>
+      <c r="A31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F32" s="1" t="b">
-        <v>0</v>
+        <v>330</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>260</v>
@@ -2376,16 +2384,19 @@
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="H34" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>260</v>
@@ -2396,77 +2407,80 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>229</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>23</v>
+        <v>179</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
@@ -2474,19 +2488,13 @@
       <c r="I41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>15</v>
@@ -2494,13 +2502,19 @@
       <c r="I42" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="J42" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>15</v>
@@ -2508,25 +2522,22 @@
       <c r="I43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2534,10 +2545,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>32</v>
@@ -2548,10 +2562,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>32</v>
@@ -2562,13 +2576,10 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>461</v>
+        <v>275</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>471</v>
+        <v>276</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>32</v>
@@ -2579,43 +2590,49 @@
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>40</v>
+        <v>461</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>15</v>
+        <v>466</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2623,72 +2640,63 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="I53" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F54" s="1" t="b">
+      <c r="F55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="I55" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>199</v>
@@ -2699,10 +2707,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>241</v>
@@ -2716,55 +2724,55 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>463</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>199</v>
@@ -2772,16 +2780,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>185</v>
+      </c>
+      <c r="F62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>199</v>
@@ -2792,10 +2803,10 @@
         <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
@@ -2806,66 +2817,59 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J65" s="3"/>
+      <c r="I65" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>324</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -2876,21 +2880,25 @@
       <c r="I67" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3" t="s">
@@ -2900,36 +2908,32 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>317</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
@@ -2940,17 +2944,19 @@
       <c r="I70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J70" s="3"/>
+      <c r="J70" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2969,10 +2975,10 @@
         <v>12</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>382</v>
+        <v>59</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2988,13 +2994,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3" t="s">
@@ -3004,44 +3016,38 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>282</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J74" s="2"/>
+      <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3" t="s">
         <v>199</v>
@@ -3050,17 +3056,15 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
         <v>15</v>
@@ -3074,15 +3078,17 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>410</v>
+        <v>66</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
         <v>15</v>
@@ -3092,16 +3098,17 @@
       <c r="I77" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>180</v>
+        <v>410</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3111,32 +3118,33 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>199</v>
@@ -3144,16 +3152,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>199</v>
@@ -3161,54 +3172,50 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3" t="s">
+      <c r="F83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>181</v>
+        <v>413</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3218,32 +3225,33 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>199</v>
@@ -3251,16 +3259,19 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>199</v>
@@ -3268,54 +3279,50 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3" t="s">
+      <c r="F89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3325,32 +3332,33 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>199</v>
@@ -3358,16 +3366,19 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>199</v>
@@ -3375,54 +3386,50 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3" t="s">
+      <c r="F95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3432,32 +3439,33 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>199</v>
@@ -3465,16 +3473,19 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>199</v>
@@ -3482,54 +3493,50 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3" t="s">
+      <c r="F101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>20</v>
+        <v>421</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>246</v>
+        <v>422</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3539,32 +3546,33 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>199</v>
@@ -3572,16 +3580,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>199</v>
@@ -3589,54 +3600,50 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3" t="s">
+      <c r="F107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>247</v>
+        <v>425</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3646,32 +3653,33 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>199</v>
@@ -3679,16 +3687,19 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>199</v>
@@ -3696,54 +3707,50 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3" t="s">
+      <c r="F113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>248</v>
+        <v>429</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3753,32 +3760,33 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
         <v>430</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>199</v>
@@ -3786,16 +3794,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>199</v>
@@ -3803,54 +3814,50 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3" t="s">
+      <c r="F119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>249</v>
+        <v>431</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3860,32 +3867,33 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>199</v>
@@ -3893,16 +3901,19 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>199</v>
@@ -3910,54 +3921,50 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3" t="s">
+      <c r="F125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3967,32 +3974,33 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>199</v>
@@ -4000,16 +4008,19 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>199</v>
@@ -4017,54 +4028,50 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3" t="s">
+      <c r="F131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>251</v>
+        <v>437</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4074,32 +4081,33 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>199</v>
@@ -4107,16 +4115,19 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>199</v>
@@ -4124,54 +4135,50 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3" t="s">
+      <c r="F137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4181,32 +4188,33 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>199</v>
@@ -4214,16 +4222,19 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>199</v>
@@ -4231,54 +4242,50 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3" t="s">
+      <c r="F143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>244</v>
+        <v>443</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4288,273 +4295,270 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
+      <c r="I146" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
+      <c r="F147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
+      <c r="I150" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I152" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
+      <c r="F154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
+      <c r="F155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
+      <c r="I156" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I156" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I157" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
+      <c r="F159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I159" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J160" s="3"/>
+      <c r="I160" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H161" s="3"/>
       <c r="I161" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J161" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>323</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
@@ -4565,58 +4569,58 @@
       <c r="I162" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J162" s="3"/>
+      <c r="J162" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
+      <c r="I163" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C164" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
-      <c r="I164" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>320</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
@@ -4627,17 +4631,19 @@
       <c r="I165" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J165" s="3"/>
+      <c r="J165" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4656,10 +4662,10 @@
         <v>12</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>384</v>
+        <v>115</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -4675,13 +4681,19 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3" t="s">
@@ -4691,44 +4703,38 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>321</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-      <c r="F169" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J169" s="2"/>
+      <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>65</v>
+        <v>321</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G170" s="3"/>
+      <c r="G170" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H170" s="3"/>
       <c r="I170" s="3" t="s">
         <v>199</v>
@@ -4737,17 +4743,15 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3" t="s">
         <v>15</v>
@@ -4761,15 +4765,17 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>334</v>
+        <v>29</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>336</v>
+        <v>118</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D172" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3" t="s">
         <v>15</v>
@@ -4783,13 +4789,13 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4799,35 +4805,37 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>199</v>
@@ -4835,16 +4843,19 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>199</v>
@@ -4852,16 +4863,13 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>15</v>
@@ -4872,13 +4880,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>15</v>
@@ -4889,47 +4900,44 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>199</v>
@@ -4937,16 +4945,19 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>199</v>
@@ -4954,16 +4965,13 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>15</v>
@@ -4974,13 +4982,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>340</v>
+        <v>124</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>15</v>
@@ -4991,44 +5002,41 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>342</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>199</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>199</v>
@@ -5036,16 +5044,19 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>199</v>
@@ -5053,54 +5064,50 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3" t="s">
+      <c r="F190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -5110,32 +5117,33 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A192" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>199</v>
@@ -5143,16 +5151,19 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>199</v>
@@ -5160,54 +5171,50 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3" t="s">
+      <c r="F196" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -5217,32 +5224,33 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>199</v>
@@ -5250,16 +5258,19 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>199</v>
@@ -5267,54 +5278,50 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A202" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3" t="s">
+      <c r="F202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>20</v>
+        <v>351</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -5324,32 +5331,33 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A204" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A204" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>199</v>
@@ -5357,16 +5365,19 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>199</v>
@@ -5374,54 +5385,50 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3" t="s">
+      <c r="F208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -5431,32 +5438,33 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>199</v>
@@ -5464,16 +5472,19 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>199</v>
@@ -5481,54 +5492,50 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A214" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3" t="s">
+      <c r="F214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -5538,32 +5545,33 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>199</v>
@@ -5571,16 +5579,19 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I218" s="1" t="s">
         <v>199</v>
@@ -5588,54 +5599,50 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3" t="s">
+      <c r="F220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I220" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -5645,32 +5652,33 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A222" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I223" s="1" t="s">
         <v>199</v>
@@ -5678,16 +5686,19 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>199</v>
@@ -5695,54 +5706,50 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A226" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3" t="s">
+      <c r="F226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I226" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -5752,32 +5759,33 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>199</v>
@@ -5785,16 +5793,19 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>199</v>
@@ -5802,54 +5813,50 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A232" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3" t="s">
+      <c r="F232" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I232" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -5859,32 +5866,33 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A234" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>199</v>
@@ -5892,16 +5900,19 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>199</v>
@@ -5909,54 +5920,50 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A238" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3" t="s">
+      <c r="F238" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I238" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -5966,32 +5973,33 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A240" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A240" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>199</v>
@@ -5999,24 +6007,30 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
@@ -6024,19 +6038,13 @@
         <v>12</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
@@ -6044,16 +6052,16 @@
         <v>12</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>289</v>
+        <v>452</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>199</v>
@@ -6061,16 +6069,22 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F246" s="1" t="b">
-        <v>0</v>
+        <v>289</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
@@ -6078,24 +6092,24 @@
         <v>43</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>15</v>
+        <v>215</v>
+      </c>
+      <c r="F247" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>15</v>
@@ -6103,13 +6117,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>15</v>
@@ -6117,20 +6131,34 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F250" s="1" t="b">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F251" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>70</v>
       </c>
     </row>
